--- a/bolser-lewis/source/bolser-lewis.xlsx
+++ b/bolser-lewis/source/bolser-lewis.xlsx
@@ -44,44 +44,6 @@
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="C80">
-      <text>
-        <t xml:space="preserve">http://purl.obolibrary.org/obo/UBERON_0000379
-aka
-http://uri.interlex.org/ilx_0724678
-	-Tom Gillespie
-+troysincomb@gmail.com
-	-Tom Gillespie
-Thumbs up for merge.
-	-Tom Gillespie
-👍
-	-Troy</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C74">
-      <text>
-        <t xml:space="preserve">Is http://purl.obolibrary.org/obo/UBERON_0009050 the correct id here? Aka http://uri.interlex.org/base/ilx_0110729. If so we will merge the terms.
-	-Tom Gillespie
-+troysincomb@gmail.com
-	-Tom Gillespie
-Thumbs up for merge.
-	-Tom Gillespie
-👍
-	-Troy</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C38">
-      <text>
-        <t xml:space="preserve">http://purl.org/sig/ont/fma/fma14056 is White communicating ramus of thoracic ventral ramus and doesn't specify T1.  Added to Interlex: http://uri.interlex.org/base/ilx_0738372
-	-M Martone</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C33">
-      <text>
-        <t xml:space="preserve">According to FMA, this identifier only points to Rexed Lamina VII not Rexed Lamina VII of T1.  So I have created the cross product in Interlex: http://uri.interlex.org/base/ilx_0738371
-	-M Martone</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -120,7 +82,7 @@
     <t>bolser-lewis</t>
   </si>
   <si>
-    <t>Bolser-Lewis map</t>
+    <t>Bolser-Lewis Model of the Physiology of the Superior Cervical Ganglion</t>
   </si>
   <si>
     <t>bolew</t>

--- a/bolser-lewis/source/bolser-lewis.xlsx
+++ b/bolser-lewis/source/bolser-lewis.xlsx
@@ -10,10 +10,11 @@
     <sheet state="visible" name="nodes" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="links" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="references" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="channels" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="chains" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="coalescences" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="groups" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="publications" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="channels" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="chains" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="coalescences" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="groups" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1121">
   <si>
     <t>id</t>
   </si>
@@ -1487,6 +1488,1434 @@
   </si>
   <si>
     <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>PMID:7782568</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7782568</t>
+  </si>
+  <si>
+    <t>PMID:7796149</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7796149</t>
+  </si>
+  <si>
+    <t>PMID:7813797</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7813797</t>
+  </si>
+  <si>
+    <t>PMID:7834356</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7834356</t>
+  </si>
+  <si>
+    <t>PMID:7836682</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7836682</t>
+  </si>
+  <si>
+    <t>PMID:7836686</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7836686</t>
+  </si>
+  <si>
+    <t>PMID:7903970</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7903970</t>
+  </si>
+  <si>
+    <t>PMID:7929567</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/7929567</t>
+  </si>
+  <si>
+    <t>PMID:8100177</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8100177</t>
+  </si>
+  <si>
+    <t>PMID:8276896</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8276896</t>
+  </si>
+  <si>
+    <t>PMID:8332264</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8332264</t>
+  </si>
+  <si>
+    <t>PMID:8387586</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8387586</t>
+  </si>
+  <si>
+    <t>PMID:8506074</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8506074</t>
+  </si>
+  <si>
+    <t>PMID:8547955</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8547955</t>
+  </si>
+  <si>
+    <t>PMID:8577385</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8577385</t>
+  </si>
+  <si>
+    <t>PMID:8601611</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8601611</t>
+  </si>
+  <si>
+    <t>PMID:8624712</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8624712</t>
+  </si>
+  <si>
+    <t>PMID:8740667</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8740667</t>
+  </si>
+  <si>
+    <t>PMID:8788567</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8788567</t>
+  </si>
+  <si>
+    <t>PMID:8788934</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8788934</t>
+  </si>
+  <si>
+    <t>PMID:8811416</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8811416</t>
+  </si>
+  <si>
+    <t>PMID:8886382</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8886382</t>
+  </si>
+  <si>
+    <t>PMID:8951888</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8951888</t>
+  </si>
+  <si>
+    <t>PMID:8969167</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/8969167</t>
+  </si>
+  <si>
+    <t>PMID:9004349</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9004349</t>
+  </si>
+  <si>
+    <t>PMID:9027733</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9027733</t>
+  </si>
+  <si>
+    <t>PMID:9133430</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9133430</t>
+  </si>
+  <si>
+    <t>PMID:9263908</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9263908</t>
+  </si>
+  <si>
+    <t>PMID:9409712</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9409712</t>
+  </si>
+  <si>
+    <t>PMID:9490839</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9490839</t>
+  </si>
+  <si>
+    <t>PMID:9502265</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9502265</t>
+  </si>
+  <si>
+    <t>PMID:9531559</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9531559</t>
+  </si>
+  <si>
+    <t>PMID:9573372</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9573372</t>
+  </si>
+  <si>
+    <t>PMID:9729290</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9729290</t>
+  </si>
+  <si>
+    <t>PMID:9733964</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9733964</t>
+  </si>
+  <si>
+    <t>PMID:9748253</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9748253</t>
+  </si>
+  <si>
+    <t>PMID:9749948</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9749948</t>
+  </si>
+  <si>
+    <t>PMID:9838124</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9838124</t>
+  </si>
+  <si>
+    <t>PMID:9915624</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9915624</t>
+  </si>
+  <si>
+    <t>PMID:9915630</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/9915630</t>
+  </si>
+  <si>
+    <t>PMID:10225958</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10225958</t>
+  </si>
+  <si>
+    <t>PMID:10350567</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10350567</t>
+  </si>
+  <si>
+    <t>PMID:10366695</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10366695</t>
+  </si>
+  <si>
+    <t>PMID:10458655</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10458655</t>
+  </si>
+  <si>
+    <t>PMID:10494747</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10494747</t>
+  </si>
+  <si>
+    <t>PMID:10562289</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10562289</t>
+  </si>
+  <si>
+    <t>PMID:10578124</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10578124</t>
+  </si>
+  <si>
+    <t>PMID:10592284</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10592284</t>
+  </si>
+  <si>
+    <t>PMID:10658638</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10658638</t>
+  </si>
+  <si>
+    <t>PMID:10713972</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10713972</t>
+  </si>
+  <si>
+    <t>PMID:10733010</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10733010</t>
+  </si>
+  <si>
+    <t>PMID:10758340</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10758340</t>
+  </si>
+  <si>
+    <t>PMID:10811733</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10811733</t>
+  </si>
+  <si>
+    <t>PMID:10856295</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10856295</t>
+  </si>
+  <si>
+    <t>PMID:10924669</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/10924669</t>
+  </si>
+  <si>
+    <t>PMID:11023630</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11023630</t>
+  </si>
+  <si>
+    <t>PMID:11160437</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11160437</t>
+  </si>
+  <si>
+    <t>PMID:11231083</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11231083</t>
+  </si>
+  <si>
+    <t>PMID:11282377</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11282377</t>
+  </si>
+  <si>
+    <t>PMID:11408533</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11408533</t>
+  </si>
+  <si>
+    <t>PMID:11429268</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11429268</t>
+  </si>
+  <si>
+    <t>PMID:11514262</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11514262</t>
+  </si>
+  <si>
+    <t>PMID:11641357</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11641357</t>
+  </si>
+  <si>
+    <t>PMID:11739175</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11739175</t>
+  </si>
+  <si>
+    <t>PMID:11742795</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11742795</t>
+  </si>
+  <si>
+    <t>PMID:11832397</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11832397</t>
+  </si>
+  <si>
+    <t>PMID:11855675</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11855675</t>
+  </si>
+  <si>
+    <t>PMID:11871776</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/11871776</t>
+  </si>
+  <si>
+    <t>PMID:12063315</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12063315</t>
+  </si>
+  <si>
+    <t>PMID:12114323</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12114323</t>
+  </si>
+  <si>
+    <t>PMID:12122138</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12122138</t>
+  </si>
+  <si>
+    <t>PMID:12137971</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12137971</t>
+  </si>
+  <si>
+    <t>PMID:12388214</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12388214</t>
+  </si>
+  <si>
+    <t>PMID:12388215</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12388215</t>
+  </si>
+  <si>
+    <t>PMID:12388265</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12388265</t>
+  </si>
+  <si>
+    <t>PMID:12445685</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12445685</t>
+  </si>
+  <si>
+    <t>PMID:12527603</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12527603</t>
+  </si>
+  <si>
+    <t>PMID:12591925</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12591925</t>
+  </si>
+  <si>
+    <t>PMID:12626474</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12626474</t>
+  </si>
+  <si>
+    <t>PMID:12697739</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12697739</t>
+  </si>
+  <si>
+    <t>PMID:12765894</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12765894</t>
+  </si>
+  <si>
+    <t>PMID:12805022</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12805022</t>
+  </si>
+  <si>
+    <t>PMID:12932844</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/12932844</t>
+  </si>
+  <si>
+    <t>PMID:13000765</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/13000765</t>
+  </si>
+  <si>
+    <t>PMID:14519374</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14519374</t>
+  </si>
+  <si>
+    <t>PMID:14534153</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14534153</t>
+  </si>
+  <si>
+    <t>PMID:14609506</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14609506</t>
+  </si>
+  <si>
+    <t>PMID:14609949</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14609949</t>
+  </si>
+  <si>
+    <t>PMID:14627719</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14627719</t>
+  </si>
+  <si>
+    <t>PMID:14660500</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14660500</t>
+  </si>
+  <si>
+    <t>PMID:14678497</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14678497</t>
+  </si>
+  <si>
+    <t>PMID:14705045</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14705045</t>
+  </si>
+  <si>
+    <t>PMID:14946740</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/14946740</t>
+  </si>
+  <si>
+    <t>PMID:15028638</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15028638</t>
+  </si>
+  <si>
+    <t>PMID:15034123</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15034123</t>
+  </si>
+  <si>
+    <t>PMID:15063691</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15063691</t>
+  </si>
+  <si>
+    <t>PMID:15175551</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15175551</t>
+  </si>
+  <si>
+    <t>PMID:15207256</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15207256</t>
+  </si>
+  <si>
+    <t>PMID:15358754</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15358754</t>
+  </si>
+  <si>
+    <t>PMID:15447661</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15447661</t>
+  </si>
+  <si>
+    <t>PMID:15447682</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15447682</t>
+  </si>
+  <si>
+    <t>PMID:15472118</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15472118</t>
+  </si>
+  <si>
+    <t>PMID:15479161</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15479161</t>
+  </si>
+  <si>
+    <t>PMID:15499024</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15499024</t>
+  </si>
+  <si>
+    <t>PMID:15561403</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15561403</t>
+  </si>
+  <si>
+    <t>PMID:15571768</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15571768</t>
+  </si>
+  <si>
+    <t>PMID:15616031</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15616031</t>
+  </si>
+  <si>
+    <t>PMID:15629763</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15629763</t>
+  </si>
+  <si>
+    <t>PMID:15664563</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15664563</t>
+  </si>
+  <si>
+    <t>PMID:15677340</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15677340</t>
+  </si>
+  <si>
+    <t>PMID:15716855</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15716855</t>
+  </si>
+  <si>
+    <t>PMID:15800194</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15800194</t>
+  </si>
+  <si>
+    <t>PMID:15843611</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15843611</t>
+  </si>
+  <si>
+    <t>PMID:15863454</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15863454</t>
+  </si>
+  <si>
+    <t>PMID:15878769</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15878769</t>
+  </si>
+  <si>
+    <t>PMID:15879294</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15879294</t>
+  </si>
+  <si>
+    <t>PMID:15896903</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15896903</t>
+  </si>
+  <si>
+    <t>PMID:15914466</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/15914466</t>
+  </si>
+  <si>
+    <t>PMID:16051624</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16051624</t>
+  </si>
+  <si>
+    <t>PMID:16140403</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16140403</t>
+  </si>
+  <si>
+    <t>PMID:16163845</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16163845</t>
+  </si>
+  <si>
+    <t>PMID:16192990</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16192990</t>
+  </si>
+  <si>
+    <t>PMID:16357085</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16357085</t>
+  </si>
+  <si>
+    <t>PMID:16421279</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16421279</t>
+  </si>
+  <si>
+    <t>PMID:16457956</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16457956</t>
+  </si>
+  <si>
+    <t>PMID:16463381</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16463381</t>
+  </si>
+  <si>
+    <t>PMID:16467392</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16467392</t>
+  </si>
+  <si>
+    <t>PMID:16472784</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16472784</t>
+  </si>
+  <si>
+    <t>PMID:16556879</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16556879</t>
+  </si>
+  <si>
+    <t>PMID:16639428</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16639428</t>
+  </si>
+  <si>
+    <t>PMID:16683703</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16683703</t>
+  </si>
+  <si>
+    <t>PMID:16690040</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16690040</t>
+  </si>
+  <si>
+    <t>PMID:16695569</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16695569</t>
+  </si>
+  <si>
+    <t>PMID:16731638</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16731638</t>
+  </si>
+  <si>
+    <t>PMID:16772524</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16772524</t>
+  </si>
+  <si>
+    <t>PMID:16805851</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16805851</t>
+  </si>
+  <si>
+    <t>PMID:16873714</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16873714</t>
+  </si>
+  <si>
+    <t>PMID:16899065</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16899065</t>
+  </si>
+  <si>
+    <t>PMID:16966473</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16966473</t>
+  </si>
+  <si>
+    <t>PMID:16992618</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16992618</t>
+  </si>
+  <si>
+    <t>PMID:17010421</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17010421</t>
+  </si>
+  <si>
+    <t>PMID:17046837</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17046837</t>
+  </si>
+  <si>
+    <t>PMID:17116015</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17116015</t>
+  </si>
+  <si>
+    <t>PMID:17190804</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17190804</t>
+  </si>
+  <si>
+    <t>PMID:17198973</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17198973</t>
+  </si>
+  <si>
+    <t>PMID:17200432</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17200432</t>
+  </si>
+  <si>
+    <t>PMID:17291465</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17291465</t>
+  </si>
+  <si>
+    <t>PMID:17439984</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17439984</t>
+  </si>
+  <si>
+    <t>PMID:17466957</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17466957</t>
+  </si>
+  <si>
+    <t>PMID:17494952</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17494952</t>
+  </si>
+  <si>
+    <t>PMID:17548723</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17548723</t>
+  </si>
+  <si>
+    <t>PMID:17563416</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17563416</t>
+  </si>
+  <si>
+    <t>PMID:17564680</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17564680</t>
+  </si>
+  <si>
+    <t>PMID:17581829</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17581829</t>
+  </si>
+  <si>
+    <t>PMID:17659349</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17659349</t>
+  </si>
+  <si>
+    <t>PMID:17764667</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17764667</t>
+  </si>
+  <si>
+    <t>PMID:17850771</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17850771</t>
+  </si>
+  <si>
+    <t>PMID:18001283</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18001283</t>
+  </si>
+  <si>
+    <t>PMID:18215617</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18215617</t>
+  </si>
+  <si>
+    <t>PMID:18280799</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18280799</t>
+  </si>
+  <si>
+    <t>PMID:18342984</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18342984</t>
+  </si>
+  <si>
+    <t>PMID:18502401</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18502401</t>
+  </si>
+  <si>
+    <t>PMID:18509100</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18509100</t>
+  </si>
+  <si>
+    <t>PMID:18510863</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18510863</t>
+  </si>
+  <si>
+    <t>PMID:18541276</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18541276</t>
+  </si>
+  <si>
+    <t>PMID:18596110</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18596110</t>
+  </si>
+  <si>
+    <t>PMID:18668165</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18668165</t>
+  </si>
+  <si>
+    <t>PMID:18668683</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18668683</t>
+  </si>
+  <si>
+    <t>PMID:18708172</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18708172</t>
+  </si>
+  <si>
+    <t>PMID:18824142</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18824142</t>
+  </si>
+  <si>
+    <t>PMID:18834926</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18834926</t>
+  </si>
+  <si>
+    <t>PMID:18927268</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18927268</t>
+  </si>
+  <si>
+    <t>PMID:18949084</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18949084</t>
+  </si>
+  <si>
+    <t>PMID:18978039</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18978039</t>
+  </si>
+  <si>
+    <t>PMID:19022410</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19022410</t>
+  </si>
+  <si>
+    <t>PMID:19150858</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19150858</t>
+  </si>
+  <si>
+    <t>PMID:19224053</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19224053</t>
+  </si>
+  <si>
+    <t>PMID:19246694</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19246694</t>
+  </si>
+  <si>
+    <t>PMID:19410664</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19410664</t>
+  </si>
+  <si>
+    <t>PMID:19433582</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19433582</t>
+  </si>
+  <si>
+    <t>PMID:19536480</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19536480</t>
+  </si>
+  <si>
+    <t>PMID:19563784</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19563784</t>
+  </si>
+  <si>
+    <t>PMID:19563966</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19563966</t>
+  </si>
+  <si>
+    <t>PMID:20357072</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20357072</t>
+  </si>
+  <si>
+    <t>PMID:20452469</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20452469</t>
+  </si>
+  <si>
+    <t>PMID:20530461</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20530461</t>
+  </si>
+  <si>
+    <t>PMID:20620242</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20620242</t>
+  </si>
+  <si>
+    <t>PMID:20654344</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20654344</t>
+  </si>
+  <si>
+    <t>PMID:21168394</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21168394</t>
+  </si>
+  <si>
+    <t>PMID:21173073</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21173073</t>
+  </si>
+  <si>
+    <t>PMID:21334312</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21334312</t>
+  </si>
+  <si>
+    <t>PMID:21525432</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21525432</t>
+  </si>
+  <si>
+    <t>PMID:21536845</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21536845</t>
+  </si>
+  <si>
+    <t>PMID:21555000</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21555000</t>
+  </si>
+  <si>
+    <t>PMID:21729771</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21729771</t>
+  </si>
+  <si>
+    <t>PMID:22155207</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22155207</t>
+  </si>
+  <si>
+    <t>PMID:22187044</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22187044</t>
+  </si>
+  <si>
+    <t>PMID:22308161</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22308161</t>
+  </si>
+  <si>
+    <t>PMID:22364734</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22364734</t>
+  </si>
+  <si>
+    <t>PMID:22422797</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22422797</t>
+  </si>
+  <si>
+    <t>PMID:22546625</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22546625</t>
+  </si>
+  <si>
+    <t>PMID:22689348</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22689348</t>
+  </si>
+  <si>
+    <t>PMID:22728582</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22728582</t>
+  </si>
+  <si>
+    <t>PMID:22765871</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22765871</t>
+  </si>
+  <si>
+    <t>PMID:22965459</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22965459</t>
+  </si>
+  <si>
+    <t>PMID:22994521</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22994521</t>
+  </si>
+  <si>
+    <t>PMID:23153692</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23153692</t>
+  </si>
+  <si>
+    <t>PMID:23196432</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23196432</t>
+  </si>
+  <si>
+    <t>PMID:23949217</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23949217</t>
+  </si>
+  <si>
+    <t>PMID:23961347</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23961347</t>
+  </si>
+  <si>
+    <t>PMID:24036592</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24036592</t>
+  </si>
+  <si>
+    <t>PMID:24097160</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24097160</t>
+  </si>
+  <si>
+    <t>PMID:25583660</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25583660</t>
+  </si>
+  <si>
+    <t>PMID:25720414</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25720414</t>
+  </si>
+  <si>
+    <t>PMID:25862588</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25862588</t>
+  </si>
+  <si>
+    <t>PMID:26057593</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26057593</t>
+  </si>
+  <si>
+    <t>PMID:26087133</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26087133</t>
+  </si>
+  <si>
+    <t>PMID:26272445</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26272445</t>
+  </si>
+  <si>
+    <t>PMID:26303480</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26303480</t>
+  </si>
+  <si>
+    <t>PMID:26327233</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26327233</t>
+  </si>
+  <si>
+    <t>PMID:26808681</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26808681</t>
+  </si>
+  <si>
+    <t>PMID:27329243</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27329243</t>
+  </si>
+  <si>
+    <t>PMID:27570189</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27570189</t>
+  </si>
+  <si>
+    <t>PMID:27622862</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27622862</t>
+  </si>
+  <si>
+    <t>PMID:27692876</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27692876</t>
+  </si>
+  <si>
+    <t>PMID:27864234</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27864234</t>
+  </si>
+  <si>
+    <t>PMID:28473232</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28473232</t>
+  </si>
+  <si>
+    <t>PMID:28533756</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28533756</t>
+  </si>
+  <si>
+    <t>PMID:28637679</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28637679</t>
+  </si>
+  <si>
+    <t>PMID:28718507</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28718507</t>
+  </si>
+  <si>
+    <t>PMID:28801916</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28801916</t>
+  </si>
+  <si>
+    <t>PMID:29154859</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29154859</t>
+  </si>
+  <si>
+    <t>PMID:29169693</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29169693</t>
+  </si>
+  <si>
+    <t>PMID:29336842</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29336842</t>
+  </si>
+  <si>
+    <t>PMID:29524562</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29524562</t>
+  </si>
+  <si>
+    <t>PMID:29723577</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29723577</t>
+  </si>
+  <si>
+    <t>PMID:29775122</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29775122</t>
+  </si>
+  <si>
+    <t>PMID:30090059</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/30090059</t>
   </si>
   <si>
     <t>housingLyphs</t>
@@ -2006,7 +3435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2040,7 +3469,7 @@
     <font/>
     <font>
       <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <color rgb="FF222222"/>
@@ -2049,7 +3478,7 @@
     <font>
       <b/>
       <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -2069,6 +3498,10 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <color rgb="FF555555"/>
+      <name val="&quot;docs-Helvetica Neue&quot;"/>
+    </font>
+    <font>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
@@ -2080,11 +3513,19 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <sz val="10.0"/>
     </font>
     <font>
       <sz val="10.0"/>
-      <name val="Arial"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2157,7 +3598,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2294,7 +3735,7 @@
     <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2303,7 +3744,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2325,7 +3766,7 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2334,8 +3775,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -2346,7 +3793,7 @@
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2355,13 +3802,13 @@
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2382,6 +3829,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8466,6 +9917,2331 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="25.86"/>
+    <col customWidth="1" min="2" max="2" width="24.86"/>
+    <col customWidth="1" min="3" max="3" width="21.57"/>
+    <col customWidth="1" min="4" max="5" width="17.14"/>
+    <col customWidth="1" min="6" max="7" width="15.29"/>
+    <col customWidth="1" min="8" max="8" width="12.57"/>
+    <col customWidth="1" min="9" max="9" width="65.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>957</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="52">
+        <v>202.0</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="52">
+        <v>228.0</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="65">
+        <v>265.0</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="65">
+        <v>266.0</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="52">
+        <v>262.0</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="52">
+        <v>264.0</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>960</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="54" t="s">
+        <v>975</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>960</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="54" t="s">
+        <v>978</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>960</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="54" t="s">
+        <v>981</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>960</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="54" t="s">
+        <v>984</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>960</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="54" t="s">
+        <v>987</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J22" s="54"/>
+      <c r="K22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J23" s="54"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J24" s="54"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J25" s="54"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J26" s="54"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J27" s="54"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J28" s="54"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J29" s="54"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="52">
+        <v>220.0</v>
+      </c>
+      <c r="J31" s="54"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="67"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J32" s="54"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J33" s="54"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="52" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J34" s="54"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J35" s="54"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J36" s="54"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="54" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J37" s="54"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="54" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J38" s="54"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="54" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J39" s="54"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J40" s="54"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J41" s="54"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="54" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J42" s="54"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="54" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J43" s="54"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="54" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J44" s="54"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="54" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J45" s="54"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="54" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J46" s="54"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="54" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="54" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J48" s="54"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="54" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="54" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J50" s="54"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="54" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J51" s="54"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="54" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J52" s="54"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="54" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J53" s="54"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J54" s="54"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J55" s="54"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="54" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J56" s="54"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="54" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J57" s="54"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="54" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="54"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="54" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J59" s="54"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52">
+        <v>229.0</v>
+      </c>
+      <c r="H60" s="21"/>
+      <c r="I60" s="54" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J60" s="54"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="38.0"/>
     <col customWidth="1" min="3" max="3" width="20.57"/>
     <col customWidth="1" min="4" max="4" width="14.0"/>
@@ -8484,13 +12260,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>477</v>
+        <v>953</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>631</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -8499,7 +12275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8527,58 +12303,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>632</v>
+        <v>1108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>633</v>
+        <v>1109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>477</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>635</v>
-      </c>
-      <c r="C2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C2" s="70"/>
       <c r="D2" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>637</v>
-      </c>
-      <c r="F2" s="69"/>
+        <v>1112</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F2" s="71"/>
     </row>
     <row r="3">
-      <c r="A3" s="67" t="s">
-        <v>638</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>639</v>
-      </c>
-      <c r="C3" s="68"/>
+      <c r="A3" s="69" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C3" s="70"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67" t="s">
-        <v>640</v>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>641</v>
+        <v>1117</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>642</v>
-      </c>
-      <c r="C4" s="70"/>
+        <v>1118</v>
+      </c>
+      <c r="C4" s="72"/>
       <c r="D4" s="54" t="s">
-        <v>643</v>
+        <v>1119</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>644</v>
+        <v>1120</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="21"/>
@@ -13424,30 +17200,2405 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="15.57"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
         <v>474</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="62" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="62" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="62" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="62" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="62" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="62" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="62" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="62" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="62" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="62" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="62" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="62" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="62" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="62" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="62" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="62" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="62" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="62" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="62" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="62" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="62" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="62" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="62" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="62" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="62" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="62" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="62" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="62" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="62" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="62" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="62" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="62" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="62" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="62" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="62" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="62" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="62" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="62" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="62" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="62" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="62" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="62" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="62" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="62" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="62" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="62" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="62" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="62" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="62" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="62" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="62" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="62" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="62" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="62" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="62" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="62" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="62" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="62" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="62" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="62" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="62" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="62" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="62" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="62" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="62" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="62" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="62" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="62" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="62" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="62" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="62" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="62" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="62" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="62" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="62" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="62" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="62" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="62" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="62" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="62" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="62" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="62" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="62" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="62" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="62" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="62" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="62" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="62" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="62" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="62" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="62" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="62" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="62" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="62" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="62" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="62" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="62" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="62" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="62" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="62" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="62" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="62" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="62" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="62" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="62" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="62" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="62" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="62" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="62" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="62" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="C141" s="62" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="62" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="62" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="62" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B145" s="11"/>
+      <c r="C145" s="62" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="62" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="62" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="62" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="62" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="62" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="62" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="62" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="62" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="62" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="62" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="62" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="62" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="62" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="62" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="62" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B161" s="11"/>
+      <c r="C161" s="62" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="62" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="62" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B164" s="11"/>
+      <c r="C164" s="62" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="62" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="62" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="62" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="62" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="62" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="62" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B171" s="11"/>
+      <c r="C171" s="62" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="62" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B173" s="11"/>
+      <c r="C173" s="62" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="62" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B175" s="11"/>
+      <c r="C175" s="62" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="62" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="62" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="62" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B179" s="11"/>
+      <c r="C179" s="62" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="62" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B181" s="11"/>
+      <c r="C181" s="62" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="62" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="62" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B184" s="11"/>
+      <c r="C184" s="62" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B185" s="11"/>
+      <c r="C185" s="62" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B186" s="11"/>
+      <c r="C186" s="62" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="62" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B188" s="11"/>
+      <c r="C188" s="62" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B189" s="11"/>
+      <c r="C189" s="62" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B190" s="11"/>
+      <c r="C190" s="62" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="62" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B192" s="11"/>
+      <c r="C192" s="62" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B193" s="11"/>
+      <c r="C193" s="62" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B194" s="11"/>
+      <c r="C194" s="62" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B195" s="11"/>
+      <c r="C195" s="62" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B196" s="11"/>
+      <c r="C196" s="62" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="B197" s="11"/>
+      <c r="C197" s="62" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="B198" s="11"/>
+      <c r="C198" s="62" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="B199" s="11"/>
+      <c r="C199" s="62" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="B200" s="11"/>
+      <c r="C200" s="62" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="B201" s="11"/>
+      <c r="C201" s="62" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="B202" s="11"/>
+      <c r="C202" s="62" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B203" s="11"/>
+      <c r="C203" s="62" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="B204" s="11"/>
+      <c r="C204" s="62" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="B205" s="11"/>
+      <c r="C205" s="62" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B206" s="11"/>
+      <c r="C206" s="62" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B207" s="11"/>
+      <c r="C207" s="62" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="B208" s="11"/>
+      <c r="C208" s="62" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="62" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="62" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="B211" s="11"/>
+      <c r="C211" s="62" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B212" s="11"/>
+      <c r="C212" s="62" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="62" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B214" s="11"/>
+      <c r="C214" s="62" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B215" s="11"/>
+      <c r="C215" s="62" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B216" s="11"/>
+      <c r="C216" s="62" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="62" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B218" s="11"/>
+      <c r="C218" s="62" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B219" s="11"/>
+      <c r="C219" s="62" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="62" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="B221" s="11"/>
+      <c r="C221" s="62" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B222" s="11"/>
+      <c r="C222" s="62" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="B223" s="11"/>
+      <c r="C223" s="62" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="B224" s="11"/>
+      <c r="C224" s="62" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="B225" s="11"/>
+      <c r="C225" s="62" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="B226" s="11"/>
+      <c r="C226" s="62" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B227" s="11"/>
+      <c r="C227" s="62" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="62" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B229" s="11"/>
+      <c r="C229" s="62" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B230" s="11"/>
+      <c r="C230" s="62" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="62" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="B232" s="11"/>
+      <c r="C232" s="62" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="B233" s="11"/>
+      <c r="C233" s="62" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="62" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="62" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="C236" s="62" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="62" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="B238" s="11"/>
+      <c r="C238" s="62" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="B239" s="11"/>
+      <c r="C239" s="62" t="s">
+        <v>949</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="C6"/>
+    <hyperlink r:id="rId6" ref="C7"/>
+    <hyperlink r:id="rId7" ref="C8"/>
+    <hyperlink r:id="rId8" ref="C9"/>
+    <hyperlink r:id="rId9" ref="C10"/>
+    <hyperlink r:id="rId10" ref="C11"/>
+    <hyperlink r:id="rId11" ref="C12"/>
+    <hyperlink r:id="rId12" ref="C13"/>
+    <hyperlink r:id="rId13" ref="C14"/>
+    <hyperlink r:id="rId14" ref="C15"/>
+    <hyperlink r:id="rId15" ref="C16"/>
+    <hyperlink r:id="rId16" ref="C17"/>
+    <hyperlink r:id="rId17" ref="C18"/>
+    <hyperlink r:id="rId18" ref="C19"/>
+    <hyperlink r:id="rId19" ref="C20"/>
+    <hyperlink r:id="rId20" ref="C21"/>
+    <hyperlink r:id="rId21" ref="C22"/>
+    <hyperlink r:id="rId22" ref="C23"/>
+    <hyperlink r:id="rId23" ref="C24"/>
+    <hyperlink r:id="rId24" ref="C25"/>
+    <hyperlink r:id="rId25" ref="C26"/>
+    <hyperlink r:id="rId26" ref="C27"/>
+    <hyperlink r:id="rId27" ref="C28"/>
+    <hyperlink r:id="rId28" ref="C29"/>
+    <hyperlink r:id="rId29" ref="C30"/>
+    <hyperlink r:id="rId30" ref="C31"/>
+    <hyperlink r:id="rId31" ref="C32"/>
+    <hyperlink r:id="rId32" ref="C33"/>
+    <hyperlink r:id="rId33" ref="C34"/>
+    <hyperlink r:id="rId34" ref="C35"/>
+    <hyperlink r:id="rId35" ref="C36"/>
+    <hyperlink r:id="rId36" ref="C37"/>
+    <hyperlink r:id="rId37" ref="C38"/>
+    <hyperlink r:id="rId38" ref="C39"/>
+    <hyperlink r:id="rId39" ref="C40"/>
+    <hyperlink r:id="rId40" ref="C41"/>
+    <hyperlink r:id="rId41" ref="C42"/>
+    <hyperlink r:id="rId42" ref="C43"/>
+    <hyperlink r:id="rId43" ref="C44"/>
+    <hyperlink r:id="rId44" ref="C45"/>
+    <hyperlink r:id="rId45" ref="C46"/>
+    <hyperlink r:id="rId46" ref="C47"/>
+    <hyperlink r:id="rId47" ref="C48"/>
+    <hyperlink r:id="rId48" ref="C49"/>
+    <hyperlink r:id="rId49" ref="C50"/>
+    <hyperlink r:id="rId50" ref="C51"/>
+    <hyperlink r:id="rId51" ref="C52"/>
+    <hyperlink r:id="rId52" ref="C53"/>
+    <hyperlink r:id="rId53" ref="C54"/>
+    <hyperlink r:id="rId54" ref="C55"/>
+    <hyperlink r:id="rId55" ref="C56"/>
+    <hyperlink r:id="rId56" ref="C57"/>
+    <hyperlink r:id="rId57" ref="C58"/>
+    <hyperlink r:id="rId58" ref="C59"/>
+    <hyperlink r:id="rId59" ref="C60"/>
+    <hyperlink r:id="rId60" ref="C61"/>
+    <hyperlink r:id="rId61" ref="C62"/>
+    <hyperlink r:id="rId62" ref="C63"/>
+    <hyperlink r:id="rId63" ref="C64"/>
+    <hyperlink r:id="rId64" ref="C65"/>
+    <hyperlink r:id="rId65" ref="C66"/>
+    <hyperlink r:id="rId66" ref="C67"/>
+    <hyperlink r:id="rId67" ref="C68"/>
+    <hyperlink r:id="rId68" ref="C69"/>
+    <hyperlink r:id="rId69" ref="C70"/>
+    <hyperlink r:id="rId70" ref="C71"/>
+    <hyperlink r:id="rId71" ref="C72"/>
+    <hyperlink r:id="rId72" ref="C73"/>
+    <hyperlink r:id="rId73" ref="C74"/>
+    <hyperlink r:id="rId74" ref="C75"/>
+    <hyperlink r:id="rId75" ref="C76"/>
+    <hyperlink r:id="rId76" ref="C77"/>
+    <hyperlink r:id="rId77" ref="C78"/>
+    <hyperlink r:id="rId78" ref="C79"/>
+    <hyperlink r:id="rId79" ref="C80"/>
+    <hyperlink r:id="rId80" ref="C81"/>
+    <hyperlink r:id="rId81" ref="C82"/>
+    <hyperlink r:id="rId82" ref="C83"/>
+    <hyperlink r:id="rId83" ref="C84"/>
+    <hyperlink r:id="rId84" ref="C85"/>
+    <hyperlink r:id="rId85" ref="C86"/>
+    <hyperlink r:id="rId86" ref="C87"/>
+    <hyperlink r:id="rId87" ref="C88"/>
+    <hyperlink r:id="rId88" ref="C89"/>
+    <hyperlink r:id="rId89" ref="C90"/>
+    <hyperlink r:id="rId90" ref="C91"/>
+    <hyperlink r:id="rId91" ref="C92"/>
+    <hyperlink r:id="rId92" ref="C93"/>
+    <hyperlink r:id="rId93" ref="C94"/>
+    <hyperlink r:id="rId94" ref="C95"/>
+    <hyperlink r:id="rId95" ref="C96"/>
+    <hyperlink r:id="rId96" ref="C97"/>
+    <hyperlink r:id="rId97" ref="C98"/>
+    <hyperlink r:id="rId98" ref="C99"/>
+    <hyperlink r:id="rId99" ref="C100"/>
+    <hyperlink r:id="rId100" ref="C101"/>
+    <hyperlink r:id="rId101" ref="C102"/>
+    <hyperlink r:id="rId102" ref="C103"/>
+    <hyperlink r:id="rId103" ref="C104"/>
+    <hyperlink r:id="rId104" ref="C105"/>
+    <hyperlink r:id="rId105" ref="C106"/>
+    <hyperlink r:id="rId106" ref="C107"/>
+    <hyperlink r:id="rId107" ref="C108"/>
+    <hyperlink r:id="rId108" ref="C109"/>
+    <hyperlink r:id="rId109" ref="C110"/>
+    <hyperlink r:id="rId110" ref="C111"/>
+    <hyperlink r:id="rId111" ref="C112"/>
+    <hyperlink r:id="rId112" ref="C113"/>
+    <hyperlink r:id="rId113" ref="C114"/>
+    <hyperlink r:id="rId114" ref="C115"/>
+    <hyperlink r:id="rId115" ref="C116"/>
+    <hyperlink r:id="rId116" ref="C117"/>
+    <hyperlink r:id="rId117" ref="C118"/>
+    <hyperlink r:id="rId118" ref="C119"/>
+    <hyperlink r:id="rId119" ref="C120"/>
+    <hyperlink r:id="rId120" ref="C121"/>
+    <hyperlink r:id="rId121" ref="C122"/>
+    <hyperlink r:id="rId122" ref="C123"/>
+    <hyperlink r:id="rId123" ref="C124"/>
+    <hyperlink r:id="rId124" ref="C125"/>
+    <hyperlink r:id="rId125" ref="C126"/>
+    <hyperlink r:id="rId126" ref="C127"/>
+    <hyperlink r:id="rId127" ref="C128"/>
+    <hyperlink r:id="rId128" ref="C129"/>
+    <hyperlink r:id="rId129" ref="C130"/>
+    <hyperlink r:id="rId130" ref="C131"/>
+    <hyperlink r:id="rId131" ref="C132"/>
+    <hyperlink r:id="rId132" ref="C133"/>
+    <hyperlink r:id="rId133" ref="C134"/>
+    <hyperlink r:id="rId134" ref="C135"/>
+    <hyperlink r:id="rId135" ref="C136"/>
+    <hyperlink r:id="rId136" ref="C137"/>
+    <hyperlink r:id="rId137" ref="C138"/>
+    <hyperlink r:id="rId138" ref="C139"/>
+    <hyperlink r:id="rId139" ref="C140"/>
+    <hyperlink r:id="rId140" ref="C141"/>
+    <hyperlink r:id="rId141" ref="C142"/>
+    <hyperlink r:id="rId142" ref="C143"/>
+    <hyperlink r:id="rId143" ref="C144"/>
+    <hyperlink r:id="rId144" ref="C145"/>
+    <hyperlink r:id="rId145" ref="C146"/>
+    <hyperlink r:id="rId146" ref="C147"/>
+    <hyperlink r:id="rId147" ref="C148"/>
+    <hyperlink r:id="rId148" ref="C149"/>
+    <hyperlink r:id="rId149" ref="C150"/>
+    <hyperlink r:id="rId150" ref="C151"/>
+    <hyperlink r:id="rId151" ref="C152"/>
+    <hyperlink r:id="rId152" ref="C153"/>
+    <hyperlink r:id="rId153" ref="C154"/>
+    <hyperlink r:id="rId154" ref="C155"/>
+    <hyperlink r:id="rId155" ref="C156"/>
+    <hyperlink r:id="rId156" ref="C157"/>
+    <hyperlink r:id="rId157" ref="C158"/>
+    <hyperlink r:id="rId158" ref="C159"/>
+    <hyperlink r:id="rId159" ref="C160"/>
+    <hyperlink r:id="rId160" ref="C161"/>
+    <hyperlink r:id="rId161" ref="C162"/>
+    <hyperlink r:id="rId162" ref="C163"/>
+    <hyperlink r:id="rId163" ref="C164"/>
+    <hyperlink r:id="rId164" ref="C165"/>
+    <hyperlink r:id="rId165" ref="C166"/>
+    <hyperlink r:id="rId166" ref="C167"/>
+    <hyperlink r:id="rId167" ref="C168"/>
+    <hyperlink r:id="rId168" ref="C169"/>
+    <hyperlink r:id="rId169" ref="C170"/>
+    <hyperlink r:id="rId170" ref="C171"/>
+    <hyperlink r:id="rId171" ref="C172"/>
+    <hyperlink r:id="rId172" ref="C173"/>
+    <hyperlink r:id="rId173" ref="C174"/>
+    <hyperlink r:id="rId174" ref="C175"/>
+    <hyperlink r:id="rId175" ref="C176"/>
+    <hyperlink r:id="rId176" ref="C177"/>
+    <hyperlink r:id="rId177" ref="C178"/>
+    <hyperlink r:id="rId178" ref="C179"/>
+    <hyperlink r:id="rId179" ref="C180"/>
+    <hyperlink r:id="rId180" ref="C181"/>
+    <hyperlink r:id="rId181" ref="C182"/>
+    <hyperlink r:id="rId182" ref="C183"/>
+    <hyperlink r:id="rId183" ref="C184"/>
+    <hyperlink r:id="rId184" ref="C185"/>
+    <hyperlink r:id="rId185" ref="C186"/>
+    <hyperlink r:id="rId186" ref="C187"/>
+    <hyperlink r:id="rId187" ref="C188"/>
+    <hyperlink r:id="rId188" ref="C189"/>
+    <hyperlink r:id="rId189" ref="C190"/>
+    <hyperlink r:id="rId190" ref="C191"/>
+    <hyperlink r:id="rId191" ref="C192"/>
+    <hyperlink r:id="rId192" ref="C193"/>
+    <hyperlink r:id="rId193" ref="C194"/>
+    <hyperlink r:id="rId194" ref="C195"/>
+    <hyperlink r:id="rId195" ref="C196"/>
+    <hyperlink r:id="rId196" ref="C197"/>
+    <hyperlink r:id="rId197" ref="C198"/>
+    <hyperlink r:id="rId198" ref="C199"/>
+    <hyperlink r:id="rId199" ref="C200"/>
+    <hyperlink r:id="rId200" ref="C201"/>
+    <hyperlink r:id="rId201" ref="C202"/>
+    <hyperlink r:id="rId202" ref="C203"/>
+    <hyperlink r:id="rId203" ref="C204"/>
+    <hyperlink r:id="rId204" ref="C205"/>
+    <hyperlink r:id="rId205" ref="C206"/>
+    <hyperlink r:id="rId206" ref="C207"/>
+    <hyperlink r:id="rId207" ref="C208"/>
+    <hyperlink r:id="rId208" ref="C209"/>
+    <hyperlink r:id="rId209" ref="C210"/>
+    <hyperlink r:id="rId210" ref="C211"/>
+    <hyperlink r:id="rId211" ref="C212"/>
+    <hyperlink r:id="rId212" ref="C213"/>
+    <hyperlink r:id="rId213" ref="C214"/>
+    <hyperlink r:id="rId214" ref="C215"/>
+    <hyperlink r:id="rId215" ref="C216"/>
+    <hyperlink r:id="rId216" ref="C217"/>
+    <hyperlink r:id="rId217" ref="C218"/>
+    <hyperlink r:id="rId218" ref="C219"/>
+    <hyperlink r:id="rId219" ref="C220"/>
+    <hyperlink r:id="rId220" ref="C221"/>
+    <hyperlink r:id="rId221" ref="C222"/>
+    <hyperlink r:id="rId222" ref="C223"/>
+    <hyperlink r:id="rId223" ref="C224"/>
+    <hyperlink r:id="rId224" ref="C225"/>
+    <hyperlink r:id="rId225" ref="C226"/>
+    <hyperlink r:id="rId226" ref="C227"/>
+    <hyperlink r:id="rId227" ref="C228"/>
+    <hyperlink r:id="rId228" ref="C229"/>
+    <hyperlink r:id="rId229" ref="C230"/>
+    <hyperlink r:id="rId230" ref="C231"/>
+    <hyperlink r:id="rId231" ref="C232"/>
+    <hyperlink r:id="rId232" ref="C233"/>
+    <hyperlink r:id="rId233" ref="C234"/>
+    <hyperlink r:id="rId234" ref="C235"/>
+    <hyperlink r:id="rId235" ref="C236"/>
+    <hyperlink r:id="rId236" ref="C237"/>
+    <hyperlink r:id="rId237" ref="C238"/>
+    <hyperlink r:id="rId238" ref="C239"/>
+  </hyperlinks>
+  <drawing r:id="rId239"/>
 </worksheet>
 </file>
 
@@ -13461,13 +19612,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="24.86"/>
-    <col customWidth="1" min="3" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="7" width="15.29"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="65.0"/>
+    <col customWidth="1" min="2" max="2" width="18.14"/>
+    <col customWidth="1" min="4" max="4" width="15.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13481,2295 +19627,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>475</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>481</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="52">
-        <v>202.0</v>
-      </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="52">
-        <v>228.0</v>
-      </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>416</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="63">
-        <v>265.0</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="63">
-        <v>266.0</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="52">
-        <v>262.0</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="52">
-        <v>264.0</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="54" t="s">
-        <v>511</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="52">
-        <v>220.0</v>
-      </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="66" t="s">
-        <v>549</v>
-      </c>
-      <c r="J32" s="54"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="66" t="s">
-        <v>552</v>
-      </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="63" t="s">
-        <v>558</v>
-      </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="63" t="s">
-        <v>561</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="54" t="s">
-        <v>567</v>
-      </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="J40" s="54"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="J41" s="54"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="54" t="s">
-        <v>570</v>
-      </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="J44" s="54"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="J45" s="54"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="54" t="s">
-        <v>588</v>
-      </c>
-      <c r="J46" s="54"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="54" t="s">
-        <v>594</v>
-      </c>
-      <c r="J48" s="54"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="J49" s="54"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="54" t="s">
-        <v>600</v>
-      </c>
-      <c r="J50" s="54"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="54" t="s">
-        <v>603</v>
-      </c>
-      <c r="J51" s="54"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="54" t="s">
-        <v>606</v>
-      </c>
-      <c r="J52" s="54"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="J53" s="54"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="54" t="s">
-        <v>612</v>
-      </c>
-      <c r="J54" s="54"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="54" t="s">
-        <v>615</v>
-      </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="54" t="s">
-        <v>618</v>
-      </c>
-      <c r="J56" s="54"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H57" s="21"/>
-      <c r="I57" s="54" t="s">
-        <v>621</v>
-      </c>
-      <c r="J57" s="54"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="J58" s="54"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="54" t="s">
-        <v>627</v>
-      </c>
-      <c r="J59" s="54"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52">
-        <v>229.0</v>
-      </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="J60" s="54"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
+        <v>950</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
